--- a/public/demo/document_demo.xlsx
+++ b/public/demo/document_demo.xlsx
@@ -29,16 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
-    <t>录入时间</t>
-    <rPh sb="0" eb="1">
-      <t>lu'ru</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi'jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <rPh sb="0" eb="1">
       <t>bei'zhu</t>
@@ -225,6 +215,13 @@
     <t>发文标题</t>
     <rPh sb="0" eb="1">
       <t>fa'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发文日期</t>
+    <rPh sb="0" eb="1">
+      <t>fa'wen'ri'qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,7 +585,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,155 +595,156 @@
     <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="5">
         <v>43187</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="5">
         <v>43188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F4" s="5">
         <v>43188</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5">
         <v>43191</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5">
         <v>43191</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
